--- a/Hajj_Arabic_Sentiment_Analysis/Twitter_Feed_Data1.xlsx
+++ b/Hajj_Arabic_Sentiment_Analysis/Twitter_Feed_Data1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>user_full_name</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>ما هو اللعنة هذا، هذا هو الجحيم، هذا تمتص، أنا فوكين لا أحب هذا. فظاظة</t>
+  </si>
+  <si>
+    <t>This is good, very good, I liked it, very nice. Really appreciate.</t>
   </si>
 </sst>
 </file>
@@ -390,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -427,6 +430,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
 </worksheet>

--- a/Hajj_Arabic_Sentiment_Analysis/Twitter_Feed_Data1.xlsx
+++ b/Hajj_Arabic_Sentiment_Analysis/Twitter_Feed_Data1.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>user_full_name</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>This is good, very good, I liked it, very nice. Really appreciate.</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>bbb</t>
   </si>
 </sst>
 </file>
@@ -396,7 +402,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -426,11 +432,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
